--- a/data/trans_dic/P25A$rendimiento-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A$rendimiento-Estudios-trans_dic.xlsx
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02065935180058741</v>
+        <v>0.02113820448883374</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01140544140914844</v>
+        <v>0.01201224181905726</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03089672782462317</v>
+        <v>0.02774660404578217</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -693,13 +693,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02157106166694331</v>
+        <v>0.02190663330894089</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01392747532690405</v>
+        <v>0.01224654401327315</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02640445042756828</v>
+        <v>0.02863054173257148</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06275774475178381</v>
+        <v>0.06462644778570563</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04722754651739879</v>
+        <v>0.05182109557527501</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09144394298908336</v>
+        <v>0.08734505941775697</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1225777584712976</v>
+        <v>0.1279385636060128</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09945411420170711</v>
+        <v>0.1083996691743948</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1290236404635428</v>
+        <v>0.1413694698279556</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06208797521830777</v>
+        <v>0.06272854990732338</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05028185684542694</v>
+        <v>0.04830569125741424</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07753664965284918</v>
+        <v>0.08017337909063668</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01280780667318856</v>
+        <v>0.01182764677566912</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03146566696975083</v>
+        <v>0.03056165968500687</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02414549339418208</v>
+        <v>0.02368163616643027</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01847240541307333</v>
+        <v>0.01847050463509443</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.005300087539568566</v>
+        <v>0.005390494627579564</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02450419550786863</v>
+        <v>0.02190551722061358</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01908656035558454</v>
+        <v>0.01959335694356991</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02515180638897787</v>
+        <v>0.02576218344434019</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03013769790531808</v>
+        <v>0.02927968661095049</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05822056090475812</v>
+        <v>0.05818440201211544</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08049535044202158</v>
+        <v>0.07719815540344169</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07701845101676356</v>
+        <v>0.07428543767024429</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08885782223572229</v>
+        <v>0.08876259595528964</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05618091610410245</v>
+        <v>0.05494335476295228</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08347264076547546</v>
+        <v>0.08401631542538189</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05626445960259759</v>
+        <v>0.05549629664411792</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05883753891968496</v>
+        <v>0.06131763175478489</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06976184741199852</v>
+        <v>0.06693120915873989</v>
       </c>
     </row>
     <row r="10">
@@ -896,28 +896,28 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008872955387584569</v>
+        <v>0.008988192531886399</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0218447009173693</v>
+        <v>0.0206472516071144</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.018713259331595</v>
+        <v>0.01832024972385211</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02454484768099623</v>
+        <v>0.02452860144122035</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01963301261806446</v>
+        <v>0.02084228396644144</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01438698110416835</v>
+        <v>0.01460560362067238</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02132899656758992</v>
+        <v>0.0213543642826452</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03076533565627222</v>
+        <v>0.02997343438322536</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06857758640993819</v>
+        <v>0.07074254621873362</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08358834900273168</v>
+        <v>0.07923189967677183</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1503022902243001</v>
+        <v>0.1436005698017967</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1773329288068072</v>
+        <v>0.1836791278429857</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1329013540516231</v>
+        <v>0.1368648731442766</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1175764224119133</v>
+        <v>0.1225530963548929</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08744954123730282</v>
+        <v>0.08879828857793995</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08310864746685011</v>
+        <v>0.08127815200809557</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1064141010825724</v>
+        <v>0.09618863593269196</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02031758320505778</v>
+        <v>0.01966821497227282</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02518956602588276</v>
+        <v>0.02566703018773649</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03465526804719946</v>
+        <v>0.03466979258828245</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02922181753072649</v>
+        <v>0.02872979878741044</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01564914951025814</v>
+        <v>0.01657551846487611</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02906552110540956</v>
+        <v>0.02726645189686472</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02656607538460742</v>
+        <v>0.02683798294386944</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02653817855252924</v>
+        <v>0.02642032266392394</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0385709237147206</v>
+        <v>0.03705511534377517</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04721505152970952</v>
+        <v>0.04728025304612966</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05324133762138177</v>
+        <v>0.05264629168448452</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07082825710232435</v>
+        <v>0.07067088584557621</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0834174359535607</v>
+        <v>0.08081627217934403</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05466674580952159</v>
+        <v>0.0580768784410002</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07471197563443564</v>
+        <v>0.07514395612485952</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0516434544043517</v>
+        <v>0.05147121480998889</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0485656747872707</v>
+        <v>0.04756860992195402</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0677249250329103</v>
+        <v>0.06631088830568405</v>
       </c>
     </row>
     <row r="16">
@@ -1289,13 +1289,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6261</v>
+        <v>6406</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4244</v>
+        <v>4469</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6483</v>
+        <v>5822</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7576</v>
+        <v>7694</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6144</v>
+        <v>5402</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>6534</v>
+        <v>7085</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19020</v>
+        <v>19586</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17572</v>
+        <v>19281</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19186</v>
+        <v>18326</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5903</v>
+        <v>6161</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6869</v>
+        <v>7487</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>4855</v>
+        <v>5320</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21807</v>
+        <v>22032</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>22181</v>
+        <v>21310</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>19186</v>
+        <v>19839</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3036</v>
+        <v>2804</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10942</v>
+        <v>10628</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7293</v>
+        <v>7153</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>2793</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1272</v>
+        <v>1294</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4927</v>
+        <v>4405</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7411</v>
+        <v>7608</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>14785</v>
+        <v>15144</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>15163</v>
+        <v>14731</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13802</v>
+        <v>13793</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>27991</v>
+        <v>26845</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23263</v>
+        <v>22437</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13437</v>
+        <v>13422</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>13488</v>
+        <v>13191</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>16784</v>
+        <v>16893</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>21846</v>
+        <v>21548</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>34586</v>
+        <v>36044</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>35098</v>
+        <v>33674</v>
       </c>
     </row>
     <row r="12">
@@ -1580,28 +1580,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>854</v>
+        <v>865</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1958</v>
+        <v>1850</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>961</v>
+        <v>941</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1866</v>
+        <v>1981</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1954</v>
+        <v>1983</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3704</v>
+        <v>3709</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5682</v>
+        <v>5536</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5790</v>
+        <v>5973</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8046</v>
+        <v>7627</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13469</v>
+        <v>12868</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9108</v>
+        <v>9434</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10287</v>
+        <v>10594</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11178</v>
+        <v>11651</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11875</v>
+        <v>12058</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>14433</v>
+        <v>14115</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>19653</v>
+        <v>17764</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12690</v>
+        <v>12284</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>20557</v>
+        <v>20946</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>20844</v>
+        <v>20853</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>7327</v>
+        <v>7204</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6049</v>
+        <v>6407</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9701</v>
+        <v>9101</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>23253</v>
+        <v>23491</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>31916</v>
+        <v>31774</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>36073</v>
+        <v>34655</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>29489</v>
+        <v>29530</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>43449</v>
+        <v>42963</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>42601</v>
+        <v>42506</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>20916</v>
+        <v>20263</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21132</v>
+        <v>22450</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>24937</v>
+        <v>25081</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>45204</v>
+        <v>45053</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>58407</v>
+        <v>57208</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>63339</v>
+        <v>62017</v>
       </c>
     </row>
     <row r="20">
